--- a/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
+++ b/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/8_Jun23_Jun22.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
-    <col width="11" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun '22</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '22</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '22</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '23</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Jun '23</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '23</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '22</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '22</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '22</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>121,065.89</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>114,807.59</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>119,158.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>118,112.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>112,978.23</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>118,112.08</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>119,158.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>114,807.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>121,065.89</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>121065.89</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>112978.23</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>117224.378</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>121,065.89</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>114,807.59</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>119,158.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>118,112.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>112,978.23</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>118,112.08</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>119,158.10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>114,807.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>121,065.89</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>121065.89</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>112978.23</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>117224.378</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>63,588.25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>59,555.15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56,016.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55,118.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>50,321.23</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>55,118.15</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>56,016.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>59,555.15</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>63,588.25</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>63588.25</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>50321.23</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>56919.886</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>55,347.67</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>49,353.45</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>49,166.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>46,069.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>37,639.80</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>46,069.04</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>49,166.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>49,353.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>55,347.67</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>55347.67</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>37639.8</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>47515.29599999999</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-739.69</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-2,227.75</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2,991.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-956.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>2,925.85</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>-956.09</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2,991.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-2,227.75</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-739.69</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>2991.91</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-2227.75</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>398.8459999999999</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>624.57</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>560.72</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>739.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>838.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>882.49</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>838.93</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>739.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>560.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>624.57</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>882.49</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>560.72</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>729.258</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,610.65</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,556.60</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,582.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,595.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,609.34</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,595.82</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,582.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,556.60</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,610.65</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1610.65</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1556.6</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1590.884</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>8,146.92</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6,132.02</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6,009.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5,888.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>5,399.09</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5,888.36</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6,009.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6,132.02</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8,146.92</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>8146.92</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>5399.09</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>6315.188</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>-7,512.48</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-122.60</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2,651.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9,557.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>14,200.43</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>9,557.87</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2,651.88</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-122.60</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-7,512.48</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>14200.43</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-7512.48</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>3755.02</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>440.27</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>557.41</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>451.93</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>733.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>492.00</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>733.00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>451.93</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>557.41</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>440.27</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>733</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>440.27</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>534.922</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>-7,072.21</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>434.81</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3,103.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10,290.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>14,692.43</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10,290.87</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3,103.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>434.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>-7,072.21</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>14692.43</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>-7072.21</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>4289.942000000001</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>615.52</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>810.57</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>977.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>812.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>679.31</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>812.42</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>977.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>810.57</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>615.52</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>977.97</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>615.52</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>779.158</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>-7,687.73</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-375.76</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2,125.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9,478.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>14,013.12</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>9,478.45</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2,125.84</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-375.76</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-7,687.73</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>14013.12</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>-7687.73</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>3510.784000000001</v>
       </c>
     </row>
     <row r="17">
@@ -1050,32 +910,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>-1,359.96</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>-1359.96</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-1359.96</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>-1359.96</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>-7,687.73</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-375.76</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,125.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8,118.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>14,013.12</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>8,118.49</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,125.84</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>-375.76</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-7,687.73</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>14013.12</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-7687.73</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>3238.792</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>-1,396.93</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-71.59</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>166.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,640.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>3,462.24</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,640.75</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>166.26</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-71.59</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-1,396.93</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>3462.24</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-1396.93</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>760.146</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>-6,290.80</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-304.17</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1,959.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6,477.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>10,550.88</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>6,477.74</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1,959.58</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>-304.17</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-6,290.80</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>10550.88</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-6290.8</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2478.646</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>-6,290.80</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-304.17</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1,959.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6,477.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>10,550.88</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>6,477.74</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1,959.58</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-304.17</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>-6,290.80</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>10550.88</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>-6290.8</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>2478.646</v>
       </c>
     </row>
     <row r="22">
@@ -1272,15 +1087,6 @@
         <is>
           <t>2,129.45</t>
         </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>2129.45</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>2129.45</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>2129.45</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>-29.54</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>49.55</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>-1.43</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-29.54</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>-29.54</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>11.64</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>-29.54</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>49.55</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>-1.43</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>-29.54</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>-29.54</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>11.64</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>-29.54</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>49.55</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-1.43</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>-29.54</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>-29.54</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>11.64</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>-29.54</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>49.55</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>30.42</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>-1.43</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>-29.54</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>49.55</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>-29.54</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>11.64</v>
       </c>
     </row>
     <row r="31"/>
